--- a/PowerShell/Grepバッチ/Grep一覧.xlsx
+++ b/PowerShell/Grepバッチ/Grep一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K-Ikeya\Desktop\サクラエディタバッチサンプル\サクラエディタGrepバッチ_PowerShell\Grepバッチ_サンプル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SakuraGrepBatch\PowerShell\Grepバッチ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFF8D57-F66E-4D78-9FF1-996B2986318A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED29524C-9DA7-470E-A5EB-AB890FC5604E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1215" windowWidth="14655" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="20370" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="置換用" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -210,6 +210,26 @@
   </si>
   <si>
     <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>somple</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(sample)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$1somple</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\t</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\t\t</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -565,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F6BBBB-0573-4D3C-8835-238BA99B3564}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -653,7 +673,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>9</v>
@@ -669,10 +689,10 @@
         <v>24</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>13</v>
@@ -684,74 +704,72 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>5</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -766,40 +784,52 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G14" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>8</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2">
+        <v>9</v>
+      </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2"/>
@@ -810,6 +840,15 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PowerShell/Grepバッチ/Grep一覧.xlsx
+++ b/PowerShell/Grepバッチ/Grep一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SakuraGrepBatch\PowerShell\Grepバッチ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED29524C-9DA7-470E-A5EB-AB890FC5604E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E98B6C-85CE-4FAB-944D-242D7268591F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="20370" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10605" yWindow="750" windowWidth="16680" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="置換用" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -154,9 +154,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sample</t>
-  </si>
-  <si>
     <t>dir01</t>
   </si>
   <si>
@@ -193,18 +190,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>^\t\tvar sample = "sample"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\t\tvar sample = "sample"\r\n\t\tsample += "add"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F:ファイル毎最初のみ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>R</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -213,23 +198,47 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>somple</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(sample)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$1somple</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\t</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\t\t</t>
+    <t>sample1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>replaceSample1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(sample2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>replace$1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sample3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>replaceSample3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sample4</t>
+  </si>
+  <si>
+    <t>replaceSample4</t>
+  </si>
+  <si>
+    <t>sample5</t>
+  </si>
+  <si>
+    <t>replaceSample5</t>
+  </si>
+  <si>
+    <t>(\t*)(var sampleAdd = "sampleAdd")\r\n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$1$2\r\n$1sampleAdd += "add"</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -585,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F6BBBB-0573-4D3C-8835-238BA99B3564}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -634,11 +643,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>0</v>
@@ -670,10 +674,10 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>9</v>
@@ -686,13 +690,13 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>13</v>
@@ -702,19 +706,19 @@
       <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -722,16 +726,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -739,115 +745,77 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>7</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="2">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="2">
-        <v>9</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/PowerShell/Grepバッチ/Grep一覧.xlsx
+++ b/PowerShell/Grepバッチ/Grep一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SakuraGrepBatch\PowerShell\Grepバッチ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E98B6C-85CE-4FAB-944D-242D7268591F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FE1D7B-FCE8-4E5B-8391-96185DD5AF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10605" yWindow="750" windowWidth="16680" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,11 +234,11 @@
     <t>replaceSample5</t>
   </si>
   <si>
-    <t>(\t*)(var sampleAdd = "sampleAdd")\r\n</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>$1$2\r\n$1sampleAdd += "add"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(\t*)(var sampleAdd = "サンプルAdd")\r\n</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -597,7 +597,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -790,10 +790,10 @@
         <v>21</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>19</v>
